--- a/StudentGradesForRami/Assignment3_Grade_Comparison.xlsx
+++ b/StudentGradesForRami/Assignment3_Grade_Comparison.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,24 @@
         <bgColor rgb="00FF6B6B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
+        <bgColor rgb="00FFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6E0B4"/>
+        <bgColor rgb="00C6E0B4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -77,6 +95,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +533,7 @@
           <t>63684</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>40</v>
       </c>
       <c r="C2" s="3" t="n">
@@ -516,10 +543,10 @@
         <v>-40</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>81</v>
+        <v>61.82</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -533,20 +560,20 @@
           <t>63685</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="5" t="n">
         <v>60</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>6</v>
+        <v>21.07</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-54</v>
+        <v>-38.93</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>54</v>
+        <v>38.93</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
@@ -560,20 +587,20 @@
           <t>63687</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="6" t="n">
         <v>75</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>41.25</v>
+        <v>49.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>-33.75</v>
+        <v>-25.4</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>33.75</v>
+        <v>25.4</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
@@ -587,7 +614,7 @@
           <t>63688</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>34.5</v>
       </c>
       <c r="C5" s="3" t="n">
@@ -614,7 +641,7 @@
           <t>63689</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>45.5</v>
       </c>
       <c r="C6" s="3" t="n">
@@ -624,10 +651,10 @@
         <v>-45.5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>73.56999999999999</v>
+        <v>58.25</v>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
@@ -641,20 +668,20 @@
           <t>63691</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="5" t="n">
         <v>68.5</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>25.98</v>
+        <v>43.03</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>-42.52</v>
+        <v>-25.47</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>42.52</v>
+        <v>25.47</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
@@ -668,7 +695,7 @@
           <t>63692</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="5" t="n">
         <v>68</v>
       </c>
       <c r="C8" s="3" t="n">
@@ -695,7 +722,7 @@
           <t>63693</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="6" t="n">
         <v>77.5</v>
       </c>
       <c r="C9" s="3" t="n">
@@ -722,7 +749,7 @@
           <t>63695</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>35</v>
       </c>
       <c r="C10" s="3" t="n">
@@ -732,10 +759,10 @@
         <v>-35</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>87.75</v>
+        <v>51.46</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -749,20 +776,20 @@
           <t>63697</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="7" t="n">
         <v>81</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>55.35</v>
+      <c r="C11" s="5" t="n">
+        <v>64.53</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>-25.65</v>
+        <v>-16.47</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>25.65</v>
+        <v>16.47</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -776,20 +803,20 @@
           <t>63699</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="6" t="n">
         <v>74.5</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>40.08</v>
+        <v>53.89</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-34.42</v>
+        <v>-20.61</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>34.42</v>
+        <v>20.61</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -803,20 +830,20 @@
           <t>63702</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="7" t="n">
         <v>81</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>55.35</v>
+      <c r="C13" s="5" t="n">
+        <v>64.53</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>-25.65</v>
+        <v>-16.47</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>25.65</v>
+        <v>16.47</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -830,7 +857,7 @@
           <t>63704</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>45.5</v>
       </c>
       <c r="C14" s="3" t="n">
@@ -840,10 +867,10 @@
         <v>-45.5</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>73.56999999999999</v>
+        <v>58.25</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -857,20 +884,20 @@
           <t>63705</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="5" t="n">
         <v>60</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>6</v>
+        <v>21.07</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-54</v>
+        <v>-38.93</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>54</v>
+        <v>38.93</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -884,20 +911,20 @@
           <t>63706</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="6" t="n">
         <v>73</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>36.55</v>
+        <v>48.96</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>-36.45</v>
+        <v>-24.04</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>36.45</v>
+        <v>24.04</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -911,20 +938,20 @@
           <t>63708</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="7" t="n">
         <v>81</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>55.35</v>
+      <c r="C17" s="5" t="n">
+        <v>64.53</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>-25.65</v>
+        <v>-16.47</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>25.65</v>
+        <v>16.47</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -938,20 +965,20 @@
           <t>63711</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3" t="n">
         <v>57.5</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.13</v>
+        <v>32.91</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>-57.37</v>
+        <v>-24.59</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>57.37</v>
+        <v>24.59</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -965,7 +992,7 @@
           <t>63712</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
         <v>34.5</v>
       </c>
       <c r="C19" s="3" t="n">
@@ -975,10 +1002,10 @@
         <v>-34.5</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>88.42</v>
+        <v>51.94</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -992,20 +1019,20 @@
           <t>63713</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="6" t="n">
         <v>70</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>29.5</v>
+        <v>36.43</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>-40.5</v>
+        <v>-33.57</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>40.5</v>
+        <v>33.57</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
@@ -1019,20 +1046,20 @@
           <t>63714</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="6" t="n">
         <v>75</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>41.25</v>
+        <v>49.6</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>-33.75</v>
+        <v>-25.4</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>33.75</v>
+        <v>25.4</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
@@ -1046,20 +1073,20 @@
           <t>63715</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="6" t="n">
         <v>73</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>36.55</v>
+        <v>48.96</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>-36.45</v>
+        <v>-24.04</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>36.45</v>
+        <v>24.04</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
@@ -1073,20 +1100,20 @@
           <t>63719</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3" t="n">
         <v>57.5</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.13</v>
+        <v>32.91</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>-57.37</v>
+        <v>-24.59</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>57.37</v>
+        <v>24.59</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -1100,20 +1127,20 @@
           <t>63720</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="6" t="n">
         <v>70</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>29.5</v>
+        <v>36.43</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>-40.5</v>
+        <v>-33.57</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>40.5</v>
+        <v>33.57</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
@@ -1127,7 +1154,7 @@
           <t>63721</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="6" t="n">
         <v>77.5</v>
       </c>
       <c r="C25" s="3" t="n">
@@ -1154,20 +1181,20 @@
           <t>63722</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="6" t="n">
         <v>74.5</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>40.08</v>
+        <v>53.89</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>-34.42</v>
+        <v>-20.61</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>34.42</v>
+        <v>20.61</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
@@ -1181,7 +1208,7 @@
           <t>63724</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="3" t="n">
         <v>35</v>
       </c>
       <c r="C27" s="3" t="n">
@@ -1191,10 +1218,10 @@
         <v>-35</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>87.75</v>
+        <v>51.46</v>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
@@ -1208,7 +1235,7 @@
           <t>63725</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="5" t="n">
         <v>68</v>
       </c>
       <c r="C28" s="3" t="n">
@@ -1229,6 +1256,7 @@
         </is>
       </c>
     </row>
+    <row r="29"/>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
@@ -1253,7 +1281,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>23.81</v>
+        <v>32.08</v>
       </c>
     </row>
     <row r="33">
@@ -1263,7 +1291,127 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50.37</v>
+        <v>36.22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>63690</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>67</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>63696</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Below Standard</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>63698</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>63700</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>67</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>63701</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>63707</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Below Standard</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>63709</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Below Standard</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>63718</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Below Standard</t>
+        </is>
       </c>
     </row>
   </sheetData>
